--- a/tesi/documenti/0 - riepilogo_entropia.xlsx
+++ b/tesi/documenti/0 - riepilogo_entropia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Categoria</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>software</t>
-  </si>
-  <si>
-    <t>(entrate pure)</t>
-  </si>
-  <si>
-    <t>(passaggi fondi)</t>
   </si>
   <si>
     <t>Amministrazione</t>
@@ -102,7 +96,51 @@
     <t>A seguito di un incidente, la regolarità delle uscite per la rata leasing è stata interrotta da 3 rate corpose per il risarcimento danno. Pur partendo da una condizione di regolarità perfetta, l’entità e la concentrazione dell’evento straordinario generano una distribuzione sbilanciata sufficiente a far salire l’entropia a livelli significativi.</t>
   </si>
   <si>
-    <t>La seguente tabella riepiloga l’entropia delle entrate, uscite e saldo per ciascun dettaglio contabile. I valori evidenziati rappresentano i casi di maggiore variabilità osservata. Le annotazioni forniscono una spiegazione delle anomalie rilevate, distinguendo tra comportamenti simulati a scopo di test e risultati emergenti dalla distribuzione dei dati stessi.</t>
+    <t>La tabella riepiloga i valori dell'entropia ottenuti mediante i file Python presenti nella Cartella 1. In particolare, sono riportati i valori delle entrate, delle uscite e dei saldi. L'utilizzo di quest'ultimo è servito come parametro d'ingresso nel ciclo di analisi delle anomalie riscontrate.</t>
+  </si>
+  <si>
+    <r>
+      <t>(entrate pure)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(passaggi fondi)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Sono movimentazioni tra conti correnti dell'azienda volti a dare copertura finanziaria agli impegni intrapresi.</t>
+  </si>
+  <si>
+    <t>Sono identifcate tutte quelle entrate avvenute sul conto corrente di deposito per mezzo di versamenti quote capitali e prestiti bancari.</t>
   </si>
 </sst>
 </file>
@@ -112,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +198,20 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -362,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +534,15 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -509,41 +570,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,14 +890,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:R23"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="S24" sqref="A1:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="2.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -844,80 +907,69 @@
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.1796875" customWidth="1"/>
+    <col min="19" max="19" width="2.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B1" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+    </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="66" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="27" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
-        <v>4.6402000000000001</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9">
-        <v>6.2770000000000001</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="29">
-        <v>5.0484</v>
-      </c>
       <c r="I4" s="47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
@@ -929,50 +981,48 @@
       <c r="Q4" s="48"/>
       <c r="R4" s="49"/>
     </row>
-    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
-      <c r="C5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="35">
-        <v>4.5430000000000001</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="33">
-        <v>4.8617999999999997</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="52"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="35">
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35">
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="66"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9">
+        <v>4.6402000000000001</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9">
         <v>6.2770000000000001</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="32">
-        <v>2.8807</v>
-      </c>
-      <c r="I6" s="50"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="29">
+        <v>5.0484</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
       <c r="L6" s="51"/>
@@ -983,14 +1033,22 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="52"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
+    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35">
+        <v>0</v>
+      </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="33">
+        <v>4.8617999999999997</v>
+      </c>
       <c r="I7" s="53"/>
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
@@ -1002,79 +1060,71 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="55"/>
     </row>
-    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="35">
+        <v>6.2770000000000001</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="32">
+        <v>2.8807</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
+    </row>
+    <row r="9" spans="2:18" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40">
         <v>4.7312000000000003</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F10" s="41">
         <v>6.9260999999999999</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="29">
+      <c r="G10" s="10"/>
+      <c r="H10" s="29">
         <v>6.2308000000000003</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36">
-        <v>4.5450999999999997</v>
-      </c>
-      <c r="F9" s="35">
-        <v>6.9276999999999997</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="33">
-        <v>6.2314999999999996</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36">
-        <v>1.8625</v>
-      </c>
-      <c r="F10" s="35">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="46">
-        <v>1.679</v>
-      </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="50" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="51"/>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
@@ -1085,14 +1135,22 @@
       <c r="Q10" s="51"/>
       <c r="R10" s="52"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36">
+        <v>4.5450999999999997</v>
+      </c>
+      <c r="F11" s="35">
+        <v>6.9276999999999997</v>
+      </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="33">
+        <v>6.2314999999999996</v>
+      </c>
       <c r="I11" s="53"/>
       <c r="J11" s="54"/>
       <c r="K11" s="54"/>
@@ -1104,83 +1162,73 @@
       <c r="Q11" s="54"/>
       <c r="R11" s="55"/>
     </row>
-    <row r="12" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36">
+        <v>1.8625</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="46">
+        <v>1.679</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="58"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="41">
+      <c r="C14" s="14"/>
+      <c r="D14" s="41">
         <v>6.9626999999999999</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E14" s="40">
         <v>3.8841000000000001</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F14" s="41">
         <v>9.9586000000000006</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="29">
+      <c r="G14" s="10"/>
+      <c r="H14" s="29">
         <v>6.2621000000000002</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-    </row>
-    <row r="13" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="35">
-        <v>6.9534000000000002</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35">
-        <v>6.9398</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="33">
-        <v>6.5563000000000002</v>
-      </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="52"/>
-    </row>
-    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="35">
-        <v>6.9512</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35">
-        <v>6.9511000000000003</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="33">
-        <v>6.6033999999999997</v>
-      </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
@@ -1192,13 +1240,21 @@
       <c r="R14" s="52"/>
     </row>
     <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="35">
+        <v>6.9534000000000002</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="35">
+        <v>6.9398</v>
+      </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="33">
+        <v>6.5563000000000002</v>
+      </c>
       <c r="I15" s="53"/>
       <c r="J15" s="54"/>
       <c r="K15" s="54"/>
@@ -1211,123 +1267,149 @@
       <c r="R15" s="55"/>
     </row>
     <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40">
+      <c r="B16" s="5"/>
+      <c r="C16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="35">
+        <v>6.9512</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>6.9511000000000003</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="33">
+        <v>6.6033999999999997</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="58"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40">
         <v>1.3378000000000001</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F18" s="41">
         <v>1.5621</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="29">
+      <c r="G18" s="10"/>
+      <c r="H18" s="29">
         <v>1.7392000000000001</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
-    </row>
-    <row r="17" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23"/>
-      <c r="C17" s="25" t="s">
+      <c r="I18" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="23"/>
+      <c r="C19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43">
+        <v>1.3328</v>
+      </c>
+      <c r="F19" s="42">
+        <v>2.3502999999999998</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="34">
+        <v>3.2271999999999998</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="55"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45">
+        <v>0</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="31">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="58"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43">
-        <v>1.3328</v>
-      </c>
-      <c r="F17" s="42">
-        <v>2.3502999999999998</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="34">
-        <v>3.2271999999999998</v>
-      </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="52"/>
-    </row>
-    <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="C18" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45">
-        <v>0</v>
-      </c>
-      <c r="F18" s="44">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="31">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="29">
+      <c r="C21" s="15"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="29">
         <v>0.81130000000000002</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
-    </row>
-    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="62"/>
       <c r="K21" s="62"/>
       <c r="L21" s="62"/>
@@ -1336,60 +1418,96 @@
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-    </row>
-    <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-    </row>
-    <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
+      <c r="R21" s="63"/>
+    </row>
+    <row r="22" spans="1:19" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:19" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="S23" s="69"/>
+    </row>
+    <row r="24" spans="1:19" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="S24" s="69"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="70"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R26" s="70"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R27" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="I4:R7"/>
-    <mergeCell ref="I8:R11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I16:R18"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I12:R15"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="B21:R23"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="I18:R20"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="I14:R17"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I6:R9"/>
+    <mergeCell ref="I10:R13"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>